--- a/medicine/Autisme/Sais-tu_pourquoi_je_saute___(film,_2020)/Sais-tu_pourquoi_je_saute___(film,_2020).xlsx
+++ b/medicine/Autisme/Sais-tu_pourquoi_je_saute___(film,_2020)/Sais-tu_pourquoi_je_saute___(film,_2020).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sais-tu_pourquoi_je_saute_%3F_(film,_2020)</t>
+          <t>Sais-tu_pourquoi_je_saute_?_(film,_2020)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sais-tu pourquoi je saute ? (The Reason I Jump) est un film documentaire américano-britannique réalisé par Jerry Rothwell, sorti en 2020. Il s'agit de l'adaptation du livre homonyme (自閉症の僕が跳びはねる理由～会話のできない中学生がつづる内なる心～) de Naoki Higashida (ja) (2005), traitant de différentes expériences d'individus muets et autistes à travers le monde[1].
-Il est sélectionné et présenté en « World Cinema Documentary Competition », le 25 janvier 2020, au Festival du film de Sundance[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sais-tu pourquoi je saute ? (The Reason I Jump) est un film documentaire américano-britannique réalisé par Jerry Rothwell, sorti en 2020. Il s'agit de l'adaptation du livre homonyme (自閉症の僕が跳びはねる理由～会話のできない中学生がつづる内なる心～) de Naoki Higashida (ja) (2005), traitant de différentes expériences d'individus muets et autistes à travers le monde.
+Il est sélectionné et présenté en « World Cinema Documentary Competition », le 25 janvier 2020, au Festival du film de Sundance.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sais-tu_pourquoi_je_saute_%3F_(film,_2020)</t>
+          <t>Sais-tu_pourquoi_je_saute_?_(film,_2020)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -520,7 +534,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sais-tu_pourquoi_je_saute_%3F_(film,_2020)</t>
+          <t>Sais-tu_pourquoi_je_saute_?_(film,_2020)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -538,7 +552,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
 Titre original : The Reason I Jump
@@ -551,7 +567,7 @@
 Production : Jeremy Dear, Stevie Lee et Al Morrow
 Déléguée production : Jody Allen, Paul Allen, Rocky Collins, Lizzie Francke, Jannat Gargi, Ruth Johnston, Stewart Le Marechal, Al Morrow, Jonny Persey, Carole Tomko et Peter Webber
 Coproduction : Sam Payne
-Sociétés de production : British Film Institute, Met Film Production, Runaway Fridge Production, The Ideas Room et Vulcan Productions[1]
+Sociétés de production : British Film Institute, Met Film Production, Runaway Fridge Production, The Ideas Room et Vulcan Productions
 Sociétés de distribution : Picturehouse Entertainment (Royaume-Uni), Kino Lorber (États-Unis) et L'Atelier Distribution (France)
 Pays de production :   États-Unis /  Royaume-Uni
 Langue originale : anglais
@@ -559,7 +575,7 @@
 Genres : documentaire, drame
 Durée : 82 minutes
 Dates de sortie :
-États-Unis : 25 janvier 2020 (avant-première au Festival du film de Sundance)[2] ; 8 janvier 2021 (sortie nationale)
+États-Unis : 25 janvier 2020 (avant-première au Festival du film de Sundance) ; 8 janvier 2021 (sortie nationale)
 Royaume-Uni : 18 juin 2021
 France : 6 avril 2022</t>
         </is>
@@ -571,7 +587,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sais-tu_pourquoi_je_saute_%3F_(film,_2020)</t>
+          <t>Sais-tu_pourquoi_je_saute_?_(film,_2020)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -591,10 +607,50 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tournage
-Le tournage a lieu au comté d'Arlington en Virginie aux États-Unis, à Noida en Uttar Pradesh en Inde, à la Sierra Leone en Afrique de l'Ouest et à Broadstairs en Kent au Royaume-Uni[3].
-Musique
-La musique du film est composée par Nainita Desai. La bande originale sort le 9 avril 2021, de chez Mercury Classics, comprenant 16 morceaux[4] :
+          <t>Tournage</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tournage a lieu au comté d'Arlington en Virginie aux États-Unis, à Noida en Uttar Pradesh en Inde, à la Sierra Leone en Afrique de l'Ouest et à Broadstairs en Kent au Royaume-Uni.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Sais-tu_pourquoi_je_saute_?_(film,_2020)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sais-tu_pourquoi_je_saute_%3F_(film,_2020)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Musique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La musique du film est composée par Nainita Desai. La bande originale sort le 9 avril 2021, de chez Mercury Classics, comprenant 16 morceaux :
 Time has no Boundaries (2:23)
 Beauty is in the Detail (2:40)
 I, Too, Exist (3:51)
@@ -615,37 +671,77 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Sais-tu_pourquoi_je_saute_%3F_(film,_2020)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Sais-tu_pourquoi_je_saute_?_(film,_2020)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Autisme/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Sais-tu_pourquoi_je_saute_%3F_(film,_2020)</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Accueil</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Festival et sorties
-Ce film documentaire est sélectionné et présenté, le 25 janvier 2020, au Festival du film de Sundance[2], avant sa sortie nationale prévue le 8 janvier 2021, aux États-Unis. Au Royaume-Uni, il sort le 18 juin 2021.
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Festival et sorties</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce film documentaire est sélectionné et présenté, le 25 janvier 2020, au Festival du film de Sundance, avant sa sortie nationale prévue le 8 janvier 2021, aux États-Unis. Au Royaume-Uni, il sort le 18 juin 2021.
 En France, il sortira le 6 avril 2022.
-Critiques
-Ce film documentaire reçoit des critiques positifs. Fionnula Halligan de Screen Daily déclare que « The Reason I Jump changera la manière dont nous pensons, et combien de films comme celui-ci puissent dire ça ? » (« The Reason I Jump will change how you think, and how many films can say that? »)[5]. Leslie Fleperin de The Hollywood Reporter dit que ce documentaire est « une alchimie d'œuvre cinématographique » (« a work of cinematic alchemy »)[6]. Guy Lodge de Variety recommande le film qui transforme le livre original en « documentaire inventif et sensuel digne de sa source » (« an inventive, sensuous documentary worthy of its source »)[7].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Sais-tu_pourquoi_je_saute_?_(film,_2020)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sais-tu_pourquoi_je_saute_%3F_(film,_2020)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Accueil</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Critiques</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce film documentaire reçoit des critiques positifs. Fionnula Halligan de Screen Daily déclare que « The Reason I Jump changera la manière dont nous pensons, et combien de films comme celui-ci puissent dire ça ? » (« The Reason I Jump will change how you think, and how many films can say that? »). Leslie Fleperin de The Hollywood Reporter dit que ce documentaire est « une alchimie d'œuvre cinématographique » (« a work of cinematic alchemy »). Guy Lodge de Variety recommande le film qui transforme le livre original en « documentaire inventif et sensuel digne de sa source » (« an inventive, sensuous documentary worthy of its source »).
 </t>
         </is>
       </c>
